--- a/docs/api_brainstorming pt2.xlsx
+++ b/docs/api_brainstorming pt2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Orgs\TSLLC\_(PHP)Copilot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Zend\Apache2\htdocs\copilot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -194,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -205,6 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -500,7 +507,7 @@
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -521,25 +528,26 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -556,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -573,7 +581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -590,27 +598,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
@@ -632,5 +640,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>